--- a/190110105-许峻玮-Datapath&Ctrl.xlsx
+++ b/190110105-许峻玮-Datapath&Ctrl.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="115">
   <si>
     <t>部件</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,10 @@
   </si>
   <si>
     <t>IROM.inst[31:20]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2092,7 +2096,7 @@
   <dimension ref="B2:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2927,7 +2931,7 @@
         <v>105</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>112</v>
